--- a/Plotting/production_shares_olefins.xlsx
+++ b/Plotting/production_shares_olefins.xlsx
@@ -638,10 +638,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1187456.282609426</v>
+        <v>1187536.510541698</v>
       </c>
       <c r="G8" t="n">
-        <v>1188420.169151668</v>
+        <v>1188408.185213571</v>
       </c>
     </row>
     <row r="9">
@@ -660,13 +660,13 @@
         <v>310448.1202725649</v>
       </c>
       <c r="E9" t="n">
-        <v>847123.4615578976</v>
+        <v>845075.5262215403</v>
       </c>
       <c r="F9" t="n">
-        <v>529853.7173905718</v>
+        <v>529773.4894583018</v>
       </c>
       <c r="G9" t="n">
-        <v>528889.8308483331</v>
+        <v>528901.8147864268</v>
       </c>
     </row>
     <row r="10">
